--- a/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú Ëïíàîäà [CS:X]Šëâàì Ðïñåèïâ[CR]![K]\nÍú - óñéï ò ïòóñúíé ëïãóÿíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I have really taken to this shop.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне очень понравилось это место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ïœåîû ðïîñàâéìïòû üóï íåòóï.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0705.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recycling is a trend of the time.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0712.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Переработка - это новый тренд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðåñåñàáïóëà - üóï îïâúê óñåîä.</t>
   </si>
 </sst>
 </file>
@@ -76,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +135,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -127,6 +176,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,20 +504,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>401</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>382</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>382</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>363</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðåñåñàáïóëà - üóï îïâúê óñåîä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been away from here a\nlong time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild was away on an\nexpedition, I heard.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1109.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы сюда уже очень давно не\nзаходили.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, гильдия была на\nэкспедиции.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òýäà ôçå ïœåîû äàâîï îå\nèàöïäéìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, ãéìûäéÿ áúìà îà\nüëòðåäéøéé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1114.ssb</t>
   </si>
 </sst>
 </file>
@@ -103,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -157,11 +181,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -188,6 +221,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -470,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,20 +594,54 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>363</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>341</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
+        <v>344</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -97,6 +97,51 @@
   </si>
   <si>
     <t>SCRIPT/G01P03A/um1114.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1312.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A bad Pokémon like [CS:N]Grovyle[CR]\ncan\'t be allowed to roam free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The capture of [CS:N]Grovyle[CR]...[K]\nWe\'re here to help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Таким Покемонам-негодяям как\n[CS:N]Гровайл[CR] нельзя позволить бродить по миру\nбезнаказанно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пришли, чтобы помочь вам...[K]\nСхватить [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàëéí Ðïëåíïîàí-îåãïäÿÿí ëàë\n[CS:N]Ãñïâàêì[CR] îåìûèÿ ðïèâïìéóû áñïäéóû ðï íéñô\náåèîàëàèàîîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñéšìé, œóïáú ðïíïœû âàí...[K]\nÒöâàóéóû [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We heard…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, we heard why [CS:N]Grovyle[CR] was\nstealing Time Gears in the first place.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы узнали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, мы узнали зачем [CS:N]Гровайл[CR]\nпохищал Шестерни Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôèîàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, íú ôèîàìé èàœåí [CS:N]Ãñïâàêì[CR]\nðïöéþàì Šåòóåñîé Âñåíåîé.</t>
   </si>
 </sst>
 </file>
@@ -509,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +689,71 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>319</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10">
+        <v>322</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>297</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>300</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -142,6 +142,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Äà, íú ôèîàìé èàœåí [CS:N]Ãñïâàêì[CR]\nðïöéþàì Šåòóåñîé Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The story is making the rounds\nin Treasure Town. It\'s hard to believe…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But it is true that time hasn\'t\ngone back to normal where stolen Time Gears\nwere put back in place…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worse yet, the zones where\ntime has stopped are growing larger…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are things happening that\ndon\'t make sense…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why I don\'t think it\'s safe\nto deny the rumor. You know! The rumor\nabout [CS:N]Grovyle[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В Городе Сокровищ только и\nговорят об этой истории. В неё трудно\nповерить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но действительно, время не\nвернулось в норму когда Шестерни Времени\nвернули на место...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И что ещё хуже, зоны, поражённые\nостановкой времени, только растут...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Происходит столько всего\nнепонятного...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И поэтому я считаю, что слухи\nмогут оказаться правдой. Ну, вы знаете!\nСлухи о [CS:N]Гровайле[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â Ãïñïäå Òïëñïâéþ óïìûëï é\nãïâïñÿó ïá üóïê éòóïñéé. Â îåæ óñôäîï\nðïâåñéóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï äåêòóâéóåìûîï, âñåíÿ îå\nâåñîôìïòû â îïñíô ëïãäà Šåòóåñîé Âñåíåîé\nâåñîôìé îà íåòóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É œóï åþæ öôçå, èïîú, ðïñàçæîîúå\nïòóàîïâëïê âñåíåîé, óïìûëï ñàòóôó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïéòöïäéó òóïìûëï âòåãï\nîåðïîÿóîïãï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ðïüóïíô ÿ òœéóàý, œóï òìôöé\níïãôó ïëàèàóûòÿ ðñàâäïê. Îô, âú èîàåóå!\nÒìôöé ï [CS:N]Ãñïâàêìå[CR]...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2112.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go with confidence and it\'ll be\nall right! Be tough!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идите уверенно и у вас всё\nполучится! Будьте сильными!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäéóå ôâåñåîîï é ô âàò âòæ\nðïìôœéóòÿ! Áôäûóå òéìûîúíé!</t>
   </si>
 </sst>
 </file>
@@ -554,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,17 +804,112 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10">
         <v>300</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="11" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>266</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4">
+        <v>269</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>272</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>275</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10">
+        <v>278</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4">
+        <v>247</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -205,6 +205,72 @@
   </si>
   <si>
     <t xml:space="preserve"> Éäéóå ôâåñåîîï é ô âàò âòæ\nðïìôœéóòÿ! Áôäûóå òéìûîúíé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2501.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was thinking that [CS:I]Sky Gift[CR] was\nsome kind of a joke, because it was completely\nempty when I opened it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I was wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сначала я подумал, что [CS:I]Небесный\nПодарок[CR] это какой-то розыгрыш, потому что\nон был совершенно пуст.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я просто не понял сути.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òîàœàìà ÿ ðïäôíàì, œóï [CS:I]Îåáåòîúê\nÐïäàñïë[CR] üóï ëàëïê-óï ñïèúãñúš, ðïóïíô œóï\nïî áúì òïâåñšåîîï ðôòó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ ðñïòóï îå ðïîÿì òôóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Looks like there will be snow\nfrom here on out.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, дальше будет много\nснега.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, äàìûšå áôäåó íîïãï\nòîåãà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It looks like the going will be\ntough from here on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, дальше подъём будет\nтруден.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, äàìûšå ðïäùæí áôäåó\nóñôäåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you climb all the way to the\ntop of [CS:P]Sky Peak[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We got tired right around the\nsnowy area, so we decided to take a break.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3114.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы сумели добраться до вершины\n[CS:P]Небесного Пика[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы попытались пройти через\nзаснеженную местность, но устали и решили\nсделать перерыв.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òôíåìé äïáñàóûòÿ äï âåñšéîú\n[CS:P]Îåáåòîïãï Ðéëà[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïðúóàìéòû ðñïêóé œåñåè\nèàòîåçåîîôý íåòóîïòóû, îï ôòóàìé é ñåšéìé\nòäåìàóû ðåñåñúâ.</t>
   </si>
 </sst>
 </file>
@@ -617,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -912,6 +978,110 @@
         <v>61</v>
       </c>
     </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
+        <v>225</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
+        <v>228</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4">
+        <v>212</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10">
+        <v>199</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4">
+        <v>183</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>186</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Зангус.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -271,6 +271,120 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú ðïðúóàìéòû ðñïêóé œåñåè\nèàòîåçåîîôý íåòóîïòóû, îï ôòóàìé é ñåšéìé\nòäåìàóû ðåñåñúâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey! I heard you climbed all the\nway to the top!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй! Я слышал, что вам удалось\nдобраться до вершины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê! Ÿ òìúšàì, œóï âàí ôäàìïòû\näïáñàóûòÿ äï âåñšéîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Us? Did we climb to the top too?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taking a break can be good and\nbad... It\'s difficult to get moving again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hah-hahahaha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы? Смогли ли мы дойти до\nвершины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Перерыв это и хорошо, и плохо...\nПосле него трудно чем-либо заниматься.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха-ха.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú? Òíïãìé ìé íú äïêóé äï\nâåñšéîú?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðåñåñúâ üóï é öïñïšï, é ðìïöï...\nÐïòìå îåãï óñôäîï œåí-ìéáï èàîéíàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà-öà.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0206.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know, either.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know a thing about the\nSecret Rank.[K] Or about an Honorary Member of\nthe Pokémon Exploration Team Federation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тоже ничего не знаю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю о Секретном Ранге.[K]\nИли о Почётных Членах Федерации Команд\nИсследователей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óïçå îéœåãï îå èîàý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý ï Òåëñåóîïí Ñàîãå.[K]\nÉìé ï Ðïœæóîúö Œìåîàö Õåäåñàøéé Ëïíàîä\nÉòòìåäïâàóåìåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you two know of a place\ncalled [CS:P]Midnight Forest[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы, ребята, знаете о месте под\nназванием [CS:P]Полуночный Лес[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú, ñåáÿóà, èîàåóå ï íåòóå ðïä\nîàèâàîéåí [CS:P]Ðïìôîïœîúê Ìåò[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That Pokémon you have with you\nis one rarely even seen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Редко увидишь Покемона, подобного\nтому, что гуляет с вами!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñåäëï ôâéäéšû Ðïëåíïîà, ðïäïáîïãï\nóïíô, œóï ãôìÿåó ò âàíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What? That rare Pokémon you\nwere with yesterday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nope, haven\'t seen him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Редкий Покемон, с которым\nвы вчера гуляли?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не-а, не видел его.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Ñåäëéê Ðïëåíïî, ò ëïóïñúí\nâú âœåñà ãôìÿìé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå-à, îå âéäåì åãï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phione Dew?[K] Oh, that! Yes!\nThey say that it\'s a cure-all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Роса Фионов?[K] Ох, она! Да!\nГоворят, что это панацея.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñïòà Õéïîïâ?[K] Ïö, ïîà! Äà!\nÃïâïñÿó, œóï üóï ðàîàøåÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Like there are encounters, so\nthere too must be farewells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как бывают встречи, так должны\nбыть и прощания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë áúâàýó âòóñåœé, óàë äïìçîú\náúóû é ðñïþàîéÿ.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -364,11 +478,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -401,6 +524,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,6 +1211,182 @@
         <v>83</v>
       </c>
     </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>139</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>151</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>154</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12">
+        <v>161</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="4">
+        <v>117</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10">
+        <v>120</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="8">
+        <v>98</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="8">
+        <v>79</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>57</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
+        <v>60</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
